--- a/BaswareAutomation/test/TestDataProvideSpain.xlsx
+++ b/BaswareAutomation/test/TestDataProvideSpain.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -72,27 +72,12 @@
     <t>0933</t>
   </si>
   <si>
-    <t>0900</t>
-  </si>
-  <si>
     <t>Personal exterior / Fees</t>
   </si>
   <si>
     <t>EMEAAD\mrodriguezmoral</t>
   </si>
   <si>
-    <t>10000,00</t>
-  </si>
-  <si>
-    <t>EMEAAD\svelez</t>
-  </si>
-  <si>
-    <t>EMEAAD\aanciaux</t>
-  </si>
-  <si>
-    <t>SelPRwfESPJMD - 2409T7/20YR</t>
-  </si>
-  <si>
     <t>SelPRwfESPJMD - 2409T9/20YR</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
   </si>
   <si>
     <t>Agency/Site</t>
-  </si>
-  <si>
-    <t>Material PRL y Logística</t>
   </si>
   <si>
     <t>SSP</t>
@@ -187,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,12 +184,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -252,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -261,7 +237,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -544,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A3" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,25 +552,25 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -604,7 +579,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>1</v>
@@ -613,19 +588,19 @@
         <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P1" t="s">
         <v>12</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R1" t="s">
         <v>5</v>
@@ -634,13 +609,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="V1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
         <v>7</v>
@@ -654,34 +629,34 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -690,19 +665,19 @@
         <v>11</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
         <v>6</v>
@@ -714,102 +689,27 @@
         <v>16</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="X2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>

--- a/BaswareAutomation/test/TestDataProvideSpain.xlsx
+++ b/BaswareAutomation/test/TestDataProvideSpain.xlsx
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
